--- a/eventExcel.xlsx
+++ b/eventExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -38,43 +38,55 @@
     <t>Description</t>
   </si>
   <si>
-    <t>DebateMovie</t>
-  </si>
-  <si>
-    <t>ahed</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
+    <t>testposter</t>
+  </si>
+  <si>
+    <t>mootaz</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>dar</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testposter2</t>
+  </si>
+  <si>
+    <t>dar2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>Tesssstposter</t>
   </si>
   <si>
     <t>2024-03-27</t>
   </si>
   <si>
-    <t>Esprit</t>
-  </si>
-  <si>
-    <t>Incoming</t>
-  </si>
-  <si>
-    <t>A movie debate</t>
-  </si>
-  <si>
-    <t>ahmeda</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>2024-03-11</t>
-  </si>
-  <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
-    <t>sfaxx</t>
-  </si>
-  <si>
-    <t>aaaa</t>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>testajout21</t>
+  </si>
+  <si>
+    <t>2024-03-19</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
   </si>
 </sst>
 </file>
@@ -119,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,7 +165,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -179,28 +191,80 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/eventExcel.xlsx
+++ b/eventExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -38,55 +38,103 @@
     <t>Description</t>
   </si>
   <si>
-    <t>testposter</t>
-  </si>
-  <si>
-    <t>mootaz</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
-    <t>dar</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testposter2</t>
-  </si>
-  <si>
-    <t>dar2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>Tesssstposter</t>
+    <t>ahmeda</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>sfaxx</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>DebateMovie</t>
+  </si>
+  <si>
+    <t>ahed</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
   </si>
   <si>
     <t>2024-03-27</t>
   </si>
   <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>testajout21</t>
+    <t>Esprit</t>
+  </si>
+  <si>
+    <t>Incoming</t>
+  </si>
+  <si>
+    <t>A movie debate</t>
+  </si>
+  <si>
+    <t>LetsDebate</t>
+  </si>
+  <si>
+    <t>MovieDebate</t>
   </si>
   <si>
     <t>2024-03-19</t>
   </si>
   <si>
-    <t>2024-03-22</t>
+    <t>incoming</t>
+  </si>
+  <si>
+    <t>Were debating Harry Potter Movies</t>
+  </si>
+  <si>
+    <t>SportaFun</t>
+  </si>
+  <si>
+    <t>SportsDay</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>ComplexeJeunes</t>
+  </si>
+  <si>
+    <t>Were practicing sports</t>
+  </si>
+  <si>
+    <t>PartyRock</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>Were having a party!</t>
+  </si>
+  <si>
+    <t>MovieNight</t>
+  </si>
+  <si>
+    <t>OpenDay</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>Pathé</t>
+  </si>
+  <si>
+    <t>We're watching a movie</t>
   </si>
 </sst>
 </file>
@@ -131,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -165,7 +213,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -186,85 +234,137 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
